--- a/R.xlsx
+++ b/R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D5ABC-8FF7-4CB4-94F4-5F7F8D6058FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC55FFD7-0489-43C1-B0D4-E5F8B1A9A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>library(dslabs)</t>
   </si>
@@ -91,6 +91,45 @@
   </si>
   <si>
     <t>number of states per region</t>
+  </si>
+  <si>
+    <t>mutate</t>
+  </si>
+  <si>
+    <t>add a new column</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>dplyr</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>choose the columns to show. Same as sql</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>%&gt;%</t>
+  </si>
+  <si>
+    <t>nrow</t>
+  </si>
+  <si>
+    <t>%in%</t>
+  </si>
+  <si>
+    <t>which.max</t>
   </si>
 </sst>
 </file>
@@ -408,35 +447,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -444,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -452,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -460,7 +515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -468,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -476,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -484,7 +539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -492,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -500,7 +555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -508,7 +563,51 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/R.xlsx
+++ b/R.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC55FFD7-0489-43C1-B0D4-E5F8B1A9A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1CC198-A81D-4441-85F1-DF1D2CA39EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
+    <sheet name="dplyr" sheetId="2" r:id="rId2"/>
+    <sheet name="data.table" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>library(dslabs)</t>
   </si>
@@ -96,9 +98,6 @@
     <t>mutate</t>
   </si>
   <si>
-    <t>add a new column</t>
-  </si>
-  <si>
     <t>rank</t>
   </si>
   <si>
@@ -130,16 +129,83 @@
   </si>
   <si>
     <t>which.max</t>
+  </si>
+  <si>
+    <t># first you have data , murders</t>
+  </si>
+  <si>
+    <t># then you filter it using filter from dplyr</t>
+  </si>
+  <si>
+    <t># then pass the filtered data to summarize to get the mean , median and max using the column , rate</t>
+  </si>
+  <si>
+    <t># and pass all to a variable called s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s &lt;- murders %&gt;% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter(region == "West") %&gt;%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  summarize(minimum = min(rate), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            median = median(rate), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            maximum = max(rate))</t>
+  </si>
+  <si>
+    <t>add a new column in dataframe</t>
+  </si>
+  <si>
+    <t>murders &lt;- mutate(murders, rate = total / population * 10^5)</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>group_by</t>
+  </si>
+  <si>
+    <t>murders %&gt;% group_by(region) %&gt;% summarize(median = median(rate))</t>
+  </si>
+  <si>
+    <t>then summarize</t>
+  </si>
+  <si>
+    <t>arrange</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>top_n</t>
+  </si>
+  <si>
+    <t>data.table object</t>
+  </si>
+  <si>
+    <t>summarize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,8 +231,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,40 +525,28 @@
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -499,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -507,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -515,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -523,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -531,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -539,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -547,7 +602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -555,7 +610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -563,51 +618,193 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>31</v>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FACFC1-8610-4996-8C2B-679EEA669398}">
+  <dimension ref="B2:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580D4781-6F4F-45A4-9926-E890E5749916}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/R.xlsx
+++ b/R.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1CC198-A81D-4441-85F1-DF1D2CA39EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A1F500-6AF0-41C5-8E28-ACF5997B7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="dplyr" sheetId="2" r:id="rId2"/>
-    <sheet name="data.table" sheetId="3" r:id="rId3"/>
+    <sheet name="ggplot2" sheetId="3" r:id="rId3"/>
+    <sheet name="statistics" sheetId="6" r:id="rId4"/>
+    <sheet name="qplot" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>library(dslabs)</t>
   </si>
@@ -189,13 +199,584 @@
   </si>
   <si>
     <t>summarize</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>sapply</t>
+  </si>
+  <si>
+    <t>mapply</t>
+  </si>
+  <si>
+    <t>tapply</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>quantile</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>nchar(s)</t>
+  </si>
+  <si>
+    <t>how many chracters long a character vector s is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breaking down a graph </t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>scatter plot , barplot , histogram, qqplot , boxplot</t>
+  </si>
+  <si>
+    <t>aesthetic mapping</t>
+  </si>
+  <si>
+    <t>visual cues such as points positions on x and y axis</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>define geometries , summary statistics , define what scale to use , styles</t>
+  </si>
+  <si>
+    <r>
+      <t>DATA %&gt;% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ggplot()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> + LAYER 1 + LAYER 2 + … + LAYER N</t>
+    </r>
+  </si>
+  <si>
+    <t>code example</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">murders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%&gt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF06287E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ggplot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_point(aes(x = population/10^6, y = total))</t>
+  </si>
+  <si>
+    <t>a scatterplot of total murders versus population in millions:</t>
+  </si>
+  <si>
+    <t>aes</t>
+  </si>
+  <si>
+    <t> function connects data with what we see on the graph by defining aesthetic mappings</t>
+  </si>
+  <si>
+    <t>often used as the argument of a geometry function.</t>
+  </si>
+  <si>
+    <t>example codes</t>
+  </si>
+  <si>
+    <t>p &lt;- ggplot(data = murders)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF06287E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>geom_point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF06287E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>aes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(population</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, total))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF06287E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>geom_point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF06287E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>aes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(population</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, total)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_text(aes(population/10^6, total, label = abb))</t>
+  </si>
+  <si>
+    <t>geom_point , geom_bar , geom_histogram , geom_label , geom_text , geom_abline</t>
+  </si>
+  <si>
+    <r>
+      <t>The logarithmic scale is useful for plotting data that includes very small numbers and very large numbers because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the scale plots the data so you can see all the numbers easily, without the small numbers squeezed too closely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When our original continuous data do not follow the bell curve, we can log transform this data </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to make it as “normal” as possible so that the statistical analysis results from this data become more valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> . In other words, the log transformation reduces or removes the skewness of our original data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The reason to use logarithmic scales is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to resolve an issue with visualizations that skew towards large values in a dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>aes(population, total , label = abb , color = region)</t>
+  </si>
+  <si>
+    <t>unique(x)</t>
+  </si>
+  <si>
+    <t>table(x)</t>
+  </si>
+  <si>
+    <t>x &lt;- c(3, 3, 3, 3, 4, 4, 2)</t>
+  </si>
+  <si>
+    <t>prop.table()</t>
+  </si>
+  <si>
+    <r>
+      <t>prop.table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>heights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>table of category proportions</t>
+  </si>
+  <si>
+    <t>proportion bar plot ?</t>
+  </si>
+  <si>
+    <t>barplot(prop.table(table(murders$region)))</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>sqrt</t>
+  </si>
+  <si>
+    <t>calculate standard units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +791,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF4070A0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF06287E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF40A070"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF05192D"/>
+      <name val="JetBrainsMonoNL"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF5F6364"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFA67F59"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEBE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,14 +902,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,23 +1206,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C31"/>
+  <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="92" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -538,31 +1231,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -570,102 +1277,173 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" ht="18.75">
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18.75">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -679,22 +1457,22 @@
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D23"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -702,62 +1480,62 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="C9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="C10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="C11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -768,7 +1546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
@@ -776,18 +1554,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>53</v>
       </c>
@@ -799,11 +1577,205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580D4781-6F4F-45A4-9926-E890E5749916}">
+  <dimension ref="B1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="88" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75">
+      <c r="B1" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="15.75">
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.75">
+      <c r="B3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75">
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75">
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="17" spans="3:4" ht="15.75">
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="D24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="D25" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" location="cb298-2" display="https://rafalab.github.io/dsbook/ggplot2.html - cb298-2" xr:uid="{E803EB7C-A925-4E14-8BD4-0A40DA713822}"/>
+    <hyperlink ref="D25" r:id="rId2" location="cb300-2" display="https://rafalab.github.io/dsbook/ggplot2.html - cb300-2" xr:uid="{036D878A-5F5E-481F-9B78-BF9D34B73157}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5764B574-3625-49AF-8849-0981B9C418AE}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669895A4-67B4-4505-AB10-7B524282137B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/R.xlsx
+++ b/R.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A1F500-6AF0-41C5-8E28-ACF5997B7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6737EA-D158-433F-AFFA-0BB17AFABD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="dplyr" sheetId="2" r:id="rId2"/>
     <sheet name="ggplot2" sheetId="3" r:id="rId3"/>
     <sheet name="statistics" sheetId="6" r:id="rId4"/>
-    <sheet name="qplot" sheetId="5" r:id="rId5"/>
+    <sheet name="probability" sheetId="7" r:id="rId5"/>
+    <sheet name="qplot" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>library(dslabs)</t>
   </si>
@@ -771,12 +772,430 @@
   <si>
     <t>calculate standard units</t>
   </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>replicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rep(c("red", "blue"), times = c(2,3))    </t>
+  </si>
+  <si>
+    <t># create an urn with 2 red, 3 blue</t>
+  </si>
+  <si>
+    <r>
+      <t>replicate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>beads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t># draw 1 bead, B times</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample(beads, 1)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # sample 1 bead at random</t>
+  </si>
+  <si>
+    <t>set.seed()</t>
+  </si>
+  <si>
+    <r>
+      <t>set.seed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1986</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>mean()</t>
+  </si>
+  <si>
+    <r>
+      <t>mean()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF454545"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> function to a logical vector returns the proportion of elements that are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF454545"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">beads </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> rep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"red"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"blue"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> times </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC92C2C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">beads </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"blue"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>probabilities are directly related to the proportion of events that satisfy a requirement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +1291,30 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC92C2C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF454545"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2F9C0A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -906,7 +1349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -925,6 +1368,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1732,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5764B574-3625-49AF-8849-0981B9C418AE}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1770,6 +2214,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C3CCF-A460-463D-944F-05260DEB4262}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18">
+      <c r="C2" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75">
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669895A4-67B4-4505-AB10-7B524282137B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/R.xlsx
+++ b/R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6737EA-D158-433F-AFFA-0BB17AFABD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6395220F-0395-441C-9E47-5D22D5E0D9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="172">
   <si>
     <t>library(dslabs)</t>
   </si>
@@ -1190,12 +1190,684 @@
   <si>
     <t>probabilities are directly related to the proportion of events that satisfy a requirement</t>
   </si>
+  <si>
+    <t># all 3 are the same</t>
+  </si>
+  <si>
+    <t>#ggplot(data = x)</t>
+  </si>
+  <si>
+    <t>#ggplot(x)</t>
+  </si>
+  <si>
+    <t>#x %&gt;% ggplot()</t>
+  </si>
+  <si>
+    <t>arsgs(ggplot)</t>
+  </si>
+  <si>
+    <t>scale_x_continuous</t>
+  </si>
+  <si>
+    <t>scale_y_continuous</t>
+  </si>
+  <si>
+    <t>change scale in x to log10</t>
+  </si>
+  <si>
+    <t>change scale in y to log10</t>
+  </si>
+  <si>
+    <r>
+      <t>scale_x_continuous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">trans </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"log10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) or scale_x_log10()</t>
+    </r>
+  </si>
+  <si>
+    <t>scale_y_continuous(trans = "log10") or scale_y_log10()</t>
+  </si>
+  <si>
+    <t>ggtitle()</t>
+  </si>
+  <si>
+    <t>xlab()</t>
+  </si>
+  <si>
+    <t>ylab()</t>
+  </si>
+  <si>
+    <r>
+      <t>xlab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Population in millions (log scale)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ylab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Total number of murders (log scale)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ggtitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"US Gun Murders in 2010"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>geom_abline</t>
+  </si>
+  <si>
+    <t>geom_histogram</t>
+  </si>
+  <si>
+    <t>geom_densite</t>
+  </si>
+  <si>
+    <t>geom_qq</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF007020"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+  </si>
+  <si>
+    <t>events &lt;- replicate(B, sample(beads, 1))</t>
+  </si>
+  <si>
+    <t>repeat n number of times</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>turn the result into a table</t>
+  </si>
+  <si>
+    <t>table(event)</t>
+  </si>
+  <si>
+    <t>prop.table</t>
+  </si>
+  <si>
+    <t>proportion table of the table</t>
+  </si>
+  <si>
+    <t>prop.table(table(event))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if want to sample with replace , add replace = TRUE </t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>expane.grid()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">number </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF007020"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Three"</t>
+    </r>
+  </si>
+  <si>
+    <t>suit &lt;- "Hearts"</t>
+  </si>
+  <si>
+    <t>paste(number, suit)</t>
+  </si>
+  <si>
+    <r>
+      <t>paste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(letters[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF06287E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as.character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>join 2 smaller strings</t>
+  </si>
+  <si>
+    <t>gives us all the combinations of entries of two vectors.</t>
+  </si>
+  <si>
+    <r>
+      <t>expand.grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF7D9029"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pants =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF06287E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"blue"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"black"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF7D9029"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shirt =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF06287E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"white"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"grey"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF4070A0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"plaid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>gtools</t>
+  </si>
+  <si>
+    <t>permutations</t>
+  </si>
+  <si>
+    <t>combinations</t>
+  </si>
+  <si>
+    <r>
+      <t>permutations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF40A070"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>combinations(3,2)</t>
+  </si>
+  <si>
+    <t>duplicated</t>
+  </si>
+  <si>
+    <t>facet_grid()</t>
+  </si>
+  <si>
+    <t>facet_plot()</t>
+  </si>
+  <si>
+    <t>geom_line</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,6 +1987,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF007020"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF7D9029"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1349,7 +2033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1369,6 +2053,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1650,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E39"/>
+  <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1888,6 +2578,11 @@
       </c>
       <c r="C39" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2021,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580D4781-6F4F-45A4-9926-E890E5749916}">
-  <dimension ref="B1:D28"/>
+  <dimension ref="B1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2160,6 +2855,112 @@
     <row r="28" spans="3:4">
       <c r="D28" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="18.75">
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="18.75">
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="18.75">
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="18.75">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2215,14 +3016,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C3CCF-A460-463D-944F-05260DEB4262}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2265,6 +3067,11 @@
         <v>114</v>
       </c>
     </row>
+    <row r="7" spans="2:4">
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="8" spans="2:4" ht="18.75">
       <c r="B8" t="s">
         <v>115</v>
@@ -2289,7 +3096,111 @@
         <v>120</v>
       </c>
     </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D14" r:id="rId1" location="cb462-2" display="https://rafalab.github.io/dsbook/probability.html - cb462-2" xr:uid="{0E5DE796-695B-417F-95C8-A43B4979B83E}"/>
+    <hyperlink ref="D20" r:id="rId2" location="cb472-2" display="https://rafalab.github.io/dsbook/probability.html - cb472-2" xr:uid="{E1A78790-A2B6-450C-8FA7-2E91DF1D4374}"/>
+    <hyperlink ref="D21" r:id="rId3" location="cb472-3" display="https://rafalab.github.io/dsbook/probability.html - cb472-3" xr:uid="{9E2E6696-AFC9-4163-BE29-5A7A4D0332EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
